--- a/Documento ejemplo.xlsx
+++ b/Documento ejemplo.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\Paginas\Proyecto Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Universidad\Documents\excel-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8EF1D-182F-43A0-813F-1C6E72B6661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE58C0-39BA-4CF8-AA9E-9C671C010713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B186549A-D180-4413-8CF9-B217B0D23C4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{B186549A-D180-4413-8CF9-B217B0D23C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>MES</t>
   </si>
@@ -463,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9DBF37-B29A-4A5B-B9A7-AA70339D93AF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="A14:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,4 +661,440 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC2EBC-736F-4741-9DD5-BB5B5613FC15}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7">
+        <v>286</v>
+      </c>
+      <c r="D7">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>139.666666666667</v>
+      </c>
+      <c r="C8">
+        <v>268.53333333333399</v>
+      </c>
+      <c r="D8">
+        <v>408.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>139.80952380952399</v>
+      </c>
+      <c r="C9">
+        <v>316.16190476190502</v>
+      </c>
+      <c r="D9">
+        <v>455.97142857142899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>139.95238095238099</v>
+      </c>
+      <c r="C10">
+        <v>363.790476190476</v>
+      </c>
+      <c r="D10">
+        <v>503.74285714285799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>140.09523809523799</v>
+      </c>
+      <c r="C11">
+        <v>411.419047619048</v>
+      </c>
+      <c r="D11">
+        <v>551.51428571428596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>140.23809523809501</v>
+      </c>
+      <c r="C12">
+        <v>459.04761904761898</v>
+      </c>
+      <c r="D12">
+        <v>599.28571428571502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>140.38095238095201</v>
+      </c>
+      <c r="C13">
+        <v>506.67619047619098</v>
+      </c>
+      <c r="D13">
+        <v>647.05714285714305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>140.52380952380901</v>
+      </c>
+      <c r="C14">
+        <v>554.30476190476304</v>
+      </c>
+      <c r="D14">
+        <v>694.82857142857199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>140.666666666666</v>
+      </c>
+      <c r="C15">
+        <v>601.93333333333396</v>
+      </c>
+      <c r="D15">
+        <v>742.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>140.80952380952399</v>
+      </c>
+      <c r="C16">
+        <v>649.561904761905</v>
+      </c>
+      <c r="D16">
+        <v>790.37142857142896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>140.95238095238099</v>
+      </c>
+      <c r="C17">
+        <v>697.19047619047706</v>
+      </c>
+      <c r="D17">
+        <v>838.14285714285802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>141.09523809523799</v>
+      </c>
+      <c r="C18">
+        <v>744.81904761904798</v>
+      </c>
+      <c r="D18">
+        <v>885.91428571428605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>141.23809523809501</v>
+      </c>
+      <c r="C19">
+        <v>792.44761904762004</v>
+      </c>
+      <c r="D19">
+        <v>933.68571428571499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>141.38095238095201</v>
+      </c>
+      <c r="C20">
+        <v>840.07619047619096</v>
+      </c>
+      <c r="D20">
+        <v>981.45714285714303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>141.52380952380901</v>
+      </c>
+      <c r="C21">
+        <v>887.70476190476302</v>
+      </c>
+      <c r="D21">
+        <v>1029.2285714285699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>141.666666666666</v>
+      </c>
+      <c r="C22">
+        <v>935.33333333333405</v>
+      </c>
+      <c r="D22">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>141.809523809523</v>
+      </c>
+      <c r="C23">
+        <v>982.96190476190498</v>
+      </c>
+      <c r="D23">
+        <v>1124.7714285714301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>141.95238095238</v>
+      </c>
+      <c r="C24">
+        <v>1030.5904761904701</v>
+      </c>
+      <c r="D24">
+        <v>1172.5428571428599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>142.09523809523799</v>
+      </c>
+      <c r="C25">
+        <v>1078.2190476190401</v>
+      </c>
+      <c r="D25">
+        <v>1220.31428571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A541F-DF25-4E70-B603-FD2E1E4D9CAA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>